--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lív Hansen\Google Drive\Skúli\Semester 4\EE4PRJ Projekt 4\Semesterprojekt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{E62208DA-9A4F-4E6F-B466-DCD9BEAA057E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>opgave/uge</t>
   </si>
@@ -81,13 +81,40 @@
   </si>
   <si>
     <t>projektbeskrivelse</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Batteri</t>
+  </si>
+  <si>
+    <t>AC/DC konvertering</t>
+  </si>
+  <si>
+    <t>Solcelle</t>
+  </si>
+  <si>
+    <t>Vindmølle</t>
+  </si>
+  <si>
+    <t>SmartGrid</t>
+  </si>
+  <si>
+    <t>PÅSKE</t>
+  </si>
+  <si>
+    <t>BUFFER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,19 +130,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,6 +213,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,20 +238,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +271,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FF552707"/>
       <color rgb="FF9A3E00"/>
       <color rgb="FFCC5300"/>
@@ -226,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +332,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -372,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E166C415-6E64-4C60-95E7-D724A53706BB}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,590 +603,767 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>7</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>8</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>9</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>10</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>11</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>12</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>13</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>14</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <v>15</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="4">
         <v>16</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="4">
         <v>17</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="4">
         <v>18</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>19</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <v>20</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="4">
         <v>21</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="H24:H34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lív Hansen\Google Drive\Skúli\Semester 4\EE4PRJ Projekt 4\Semesterprojekt4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Dokumenter\skole\F18\projekt\Semesterprojekt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="FD593637D7F48F58C4F9985D2B64B3A01C30876C" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D9B847D9-9169-46D1-9791-82BE84B6D480}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,13 +257,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,19 +588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -673,7 +674,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +695,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -715,7 +716,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -736,7 +737,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -757,7 +758,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -778,7 +779,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -797,7 +798,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -818,7 +819,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -839,7 +840,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
@@ -860,7 +861,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -881,7 +882,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
@@ -902,7 +903,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -912,7 +913,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="5"/>
@@ -925,7 +926,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -933,7 +934,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -944,7 +945,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,7 +955,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -965,7 +966,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -975,7 +976,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -986,7 +987,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,7 +997,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1007,7 +1008,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1015,7 +1016,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1026,7 +1027,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1037,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1047,7 +1048,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1058,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="5"/>
@@ -1068,7 +1069,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1079,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="5"/>
@@ -1089,7 +1090,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1097,7 +1098,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1108,7 +1109,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1132,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1153,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1174,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1195,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1213,7 +1214,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1235,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1256,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1298,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1316,7 +1317,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1337,26 +1338,26 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Dokumenter\skole\F18\projekt\Semesterprojekt4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiann\Google Drev\4. semester\Projekt4\Semesterprojekt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="FD593637D7F48F58C4F9985D2B64B3A01C30876C" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{D9B847D9-9169-46D1-9791-82BE84B6D480}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB0DBC-3272-4D16-B164-132FAF91A50E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
